--- a/xlsx/北美印第安战争_intext.xlsx
+++ b/xlsx/北美印第安战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>北美印第安战争</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E5%B9%B3%E7%89%88%E5%8D%B0%E5%88%B7%E8%A1%93</t>
   </si>
   <si>
-    <t>彩色平版印刷術</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_北美印第安战争</t>
+    <t>彩色平版印刷术</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_北美印第安战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西王國</t>
+    <t>法兰西王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德克薩斯共和國</t>
+    <t>德克萨斯共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A4%A6</t>
   </si>
   <si>
-    <t>金礦</t>
+    <t>金矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%97%8F</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國人</t>
+    <t>美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%8E%E9%A6%96</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%9B%AE</t>
   </si>
   <si>
-    <t>頭目</t>
+    <t>头目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%AF%E9%A9%AC</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>巫師</t>
+    <t>巫师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%90%E7%89%9B</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97%C2%B7%E5%8D%A1%E6%96%AF%E7%89%B9</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>起義</t>
+    <t>起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AE%B6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -299,15 +299,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>南北战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%96%AF-%E5%B7%B4%E5%85%8B%E6%96%AF%E7%89%B9%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B3%95%E7%9F%AD%E6%9A%82%E5%86%B2%E7%AA%81</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -455,25 +452,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -521,31 +518,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2276,7 @@
         <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2305,10 +2302,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2334,10 +2331,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2363,10 +2360,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2392,10 +2389,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2421,10 +2418,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2450,10 +2447,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2479,10 +2476,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2508,10 +2505,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2537,10 +2534,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2566,10 +2563,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2595,10 +2592,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2624,10 +2621,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2653,10 +2650,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2682,10 +2679,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2711,10 +2708,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2740,10 +2737,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2769,10 +2766,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2798,10 +2795,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2827,10 +2824,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2856,10 +2853,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2885,10 +2882,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2914,10 +2911,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2943,10 +2940,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2972,10 +2969,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3001,10 +2998,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3030,10 +3027,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3059,10 +3056,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3088,10 +3085,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3117,10 +3114,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3146,10 +3143,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3175,10 +3172,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3204,10 +3201,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3233,10 +3230,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3262,10 +3259,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3291,10 +3288,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3320,10 +3317,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3349,10 +3346,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3378,10 +3375,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3407,10 +3404,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3436,10 +3433,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
